--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3148B661-A9A6-45AC-B7AF-97ECD28BBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8235" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,28 @@
     <sheet name="Октябрь" sheetId="10" r:id="rId10"/>
     <sheet name="Ноябрь" sheetId="11" r:id="rId11"/>
     <sheet name="Декабрь" sheetId="12" r:id="rId12"/>
+    <sheet name="Лист1" sheetId="13" r:id="rId13"/>
+    <sheet name="Лист2" sheetId="14" r:id="rId14"/>
+    <sheet name="Лист3" sheetId="15" r:id="rId15"/>
+    <sheet name="Лист4" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
   <si>
     <t xml:space="preserve">Это первая строка Это вторая строка </t>
   </si>
@@ -217,16 +233,159 @@
   </si>
   <si>
     <t>Беляев</t>
+  </si>
+  <si>
+    <t>Абитуриенты</t>
+  </si>
+  <si>
+    <t>Фамилия
+Имя</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Сочинение</t>
+  </si>
+  <si>
+    <t>Сумма 
+баллов</t>
+  </si>
+  <si>
+    <t>Средний 
+балл</t>
+  </si>
+  <si>
+    <t>Бобров Игорь</t>
+  </si>
+  <si>
+    <t>=СУММ(B3:D3)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B3:D3)</t>
+  </si>
+  <si>
+    <t>Городилов Андрей</t>
+  </si>
+  <si>
+    <t>Лосева Ольга</t>
+  </si>
+  <si>
+    <t>Орехова Татьяна</t>
+  </si>
+  <si>
+    <t>Орлова Анна</t>
+  </si>
+  <si>
+    <t>Петров Олег</t>
+  </si>
+  <si>
+    <t>Семенова Ирина</t>
+  </si>
+  <si>
+    <t>Симонова Елена</t>
+  </si>
+  <si>
+    <t>Сомов Виктор</t>
+  </si>
+  <si>
+    <t>Суслов Иван</t>
+  </si>
+  <si>
+    <t>Фамилия
+Имя</t>
+  </si>
+  <si>
+    <t>Название озёр</t>
+  </si>
+  <si>
+    <t>Плодщадь
+(тыс.кв.м)</t>
+  </si>
+  <si>
+    <t>Глубина
+(м)</t>
+  </si>
+  <si>
+    <t>Высота над уровнем моря</t>
+  </si>
+  <si>
+    <t>Байкал</t>
+  </si>
+  <si>
+    <t>Таньганьика</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Гурон</t>
+  </si>
+  <si>
+    <t>Аральское море</t>
+  </si>
+  <si>
+    <t>Мичиган</t>
+  </si>
+  <si>
+    <t>Максимальная 
+площадь</t>
+  </si>
+  <si>
+    <t>Минимальная 
+глубина</t>
+  </si>
+  <si>
+    <t>Средняя высота
+над уровнем моря</t>
+  </si>
+  <si>
+    <t>№№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Предмет
+Фамилия</t>
+  </si>
+  <si>
+    <t>Русский 
+язык</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Иванов Петя</t>
+  </si>
+  <si>
+    <t>Васильев Вася</t>
+  </si>
+  <si>
+    <t>Ли Коля</t>
+  </si>
+  <si>
+    <t>Ян Миша</t>
+  </si>
+  <si>
+    <t>Сидорова Таня</t>
+  </si>
+  <si>
+    <t>Средний балл по группе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -275,7 +434,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +477,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -342,11 +537,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -376,38 +588,16 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,6 +606,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,6 +780,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -550,6 +832,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -725,41 +1024,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="3" max="3" width="9.109375" style="3"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -767,12 +1066,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -780,12 +1079,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -799,26 +1098,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="3" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -829,47 +1128,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="17">
         <v>178684</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="17">
         <v>11022</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="17">
         <v>91655</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="17">
         <v>8742</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="17">
         <v>76174</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="17">
         <v>7729</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="17">
         <v>14756</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="17">
         <v>5527</v>
       </c>
     </row>
@@ -882,46 +1181,46 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="18">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="19">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="20">
         <f>B2*B3</f>
         <v>275</v>
       </c>
@@ -935,162 +1234,162 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="29">
-        <v>5</v>
-      </c>
-      <c r="D2" s="29">
-        <v>4</v>
-      </c>
-      <c r="E2" s="29">
-        <v>5</v>
-      </c>
-      <c r="F2" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="C2" s="21">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21">
+        <v>4</v>
+      </c>
+      <c r="E2" s="21">
+        <v>5</v>
+      </c>
+      <c r="F2" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="29">
-        <v>4</v>
-      </c>
-      <c r="D3" s="29">
-        <v>5</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="C3" s="21">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21">
+        <v>5</v>
+      </c>
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="F3" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="F3" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="29">
-        <v>5</v>
-      </c>
-      <c r="D4" s="29">
-        <v>5</v>
-      </c>
-      <c r="E4" s="29">
-        <v>5</v>
-      </c>
-      <c r="F4" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="C4" s="21">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21">
+        <v>5</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="29">
-        <v>4</v>
-      </c>
-      <c r="D5" s="29">
-        <v>5</v>
-      </c>
-      <c r="E5" s="29">
-        <v>4</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
+        <v>5</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="21">
         <v>3</v>
       </c>
-      <c r="E6" s="29">
-        <v>5</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="E6" s="21">
+        <v>5</v>
+      </c>
+      <c r="F6" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="29">
-        <v>4</v>
-      </c>
-      <c r="D7" s="29">
-        <v>4</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="C7" s="21">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21">
+        <v>4</v>
+      </c>
+      <c r="E7" s="21">
         <v>3</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="21">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2 D5 D3 E2 F7 C4:E4">
+  <conditionalFormatting sqref="D5 C2 D3 E2 F7 C4:E4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1102,7 +1401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5 C3 D2 C7:D7 E5 F2 F4">
+  <conditionalFormatting sqref="C3 C5 D2 C7:D7 E5 F2 F4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1126,7 +1425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 E6">
+  <conditionalFormatting sqref="E6 F3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1142,84 +1441,1008 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9598BAD-7BE7-404F-A791-BB06B246539E}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="36">
+        <v>5</v>
+      </c>
+      <c r="C3" s="36">
+        <v>4</v>
+      </c>
+      <c r="D3" s="36">
+        <v>3</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="36">
+        <v>4</v>
+      </c>
+      <c r="C4" s="36">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36">
+        <v>4</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="C5" s="36">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
+        <v>4</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="36">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36">
+        <v>5</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="36">
+        <v>3</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="36">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="36">
+        <v>5</v>
+      </c>
+      <c r="C9" s="36">
+        <v>5</v>
+      </c>
+      <c r="D9" s="36">
+        <v>5</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="36">
+        <v>4</v>
+      </c>
+      <c r="C10" s="36">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36">
+        <v>4</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="36">
+        <v>4</v>
+      </c>
+      <c r="C11" s="36">
+        <v>4</v>
+      </c>
+      <c r="D11" s="36">
+        <v>4</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="36">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36">
+        <v>4</v>
+      </c>
+      <c r="D12" s="36">
+        <v>4</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B1A57E-960E-4A48-93A6-AEB5672AA8B0}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="36">
+        <v>5</v>
+      </c>
+      <c r="C3" s="36">
+        <v>4</v>
+      </c>
+      <c r="D3" s="36">
+        <v>3</v>
+      </c>
+      <c r="E3" s="37">
+        <f>SUM(B3:D3)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="40">
+        <f>AVERAGE(B3:D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="36">
+        <v>4</v>
+      </c>
+      <c r="C4" s="36">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36">
+        <v>4</v>
+      </c>
+      <c r="E4" s="37">
+        <f t="shared" ref="E4:E12" si="0">SUM(B4:D4)</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" ref="F4:F12" si="1">AVERAGE(B4:D4)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="C5" s="36">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
+        <v>4</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="36">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36">
+        <v>5</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="36">
+        <v>3</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="36">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="36">
+        <v>5</v>
+      </c>
+      <c r="C9" s="36">
+        <v>5</v>
+      </c>
+      <c r="D9" s="36">
+        <v>5</v>
+      </c>
+      <c r="E9" s="37">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="36">
+        <v>4</v>
+      </c>
+      <c r="C10" s="36">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36">
+        <v>4</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="36">
+        <v>4</v>
+      </c>
+      <c r="C11" s="36">
+        <v>4</v>
+      </c>
+      <c r="D11" s="36">
+        <v>4</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="36">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36">
+        <v>4</v>
+      </c>
+      <c r="D12" s="36">
+        <v>4</v>
+      </c>
+      <c r="E12" s="37">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A7F970-A4B6-4B87-9865-B9BE673D77E3}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="43">
+        <v>31.5</v>
+      </c>
+      <c r="C2" s="43">
+        <v>1520</v>
+      </c>
+      <c r="D2" s="43">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="43">
+        <v>34</v>
+      </c>
+      <c r="C3" s="43">
+        <v>14701</v>
+      </c>
+      <c r="D3" s="43">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="43">
+        <v>68</v>
+      </c>
+      <c r="C4" s="43">
+        <v>80</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="43">
+        <v>59.6</v>
+      </c>
+      <c r="C5" s="43">
+        <v>288</v>
+      </c>
+      <c r="D5" s="43">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="43">
+        <v>51.1</v>
+      </c>
+      <c r="C6" s="43">
+        <v>61</v>
+      </c>
+      <c r="D6" s="43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="43">
+        <v>58</v>
+      </c>
+      <c r="C7" s="43">
+        <v>281</v>
+      </c>
+      <c r="D7" s="43">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="43">
+        <f>MAX(B2:B7)</f>
+        <v>68</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43">
+        <f>MIN(C2:C7)</f>
+        <v>61</v>
+      </c>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44">
+        <f>AVERAGE(D2:D7)</f>
+        <v>461.66666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C76300E-AC2A-4B38-AF38-07C609330090}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="58.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="52">
+        <v>4</v>
+      </c>
+      <c r="D2" s="53">
+        <v>5</v>
+      </c>
+      <c r="E2" s="53">
+        <v>5</v>
+      </c>
+      <c r="F2" s="53">
+        <v>5</v>
+      </c>
+      <c r="G2" s="53">
+        <v>5</v>
+      </c>
+      <c r="H2" s="53">
+        <v>5</v>
+      </c>
+      <c r="I2" s="53">
+        <v>5</v>
+      </c>
+      <c r="J2" s="54">
+        <f>AVERAGE(C2:I2)</f>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="55">
+        <v>3</v>
+      </c>
+      <c r="D3" s="55">
+        <v>3</v>
+      </c>
+      <c r="E3" s="55">
+        <v>3</v>
+      </c>
+      <c r="F3" s="55">
+        <v>3</v>
+      </c>
+      <c r="G3" s="55">
+        <v>3</v>
+      </c>
+      <c r="H3" s="55">
+        <v>3</v>
+      </c>
+      <c r="I3" s="55">
+        <v>3</v>
+      </c>
+      <c r="J3" s="56">
+        <f t="shared" ref="J3:J7" si="0">AVERAGE(C3:I3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2</v>
+      </c>
+      <c r="D4" s="52">
+        <v>4</v>
+      </c>
+      <c r="E4" s="52">
+        <v>4</v>
+      </c>
+      <c r="F4" s="52">
+        <v>4</v>
+      </c>
+      <c r="G4" s="52">
+        <v>4</v>
+      </c>
+      <c r="H4" s="52">
+        <v>4</v>
+      </c>
+      <c r="I4" s="52">
+        <v>4</v>
+      </c>
+      <c r="J4" s="56">
+        <f t="shared" si="0"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="52">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+      <c r="E5" s="53">
+        <v>5</v>
+      </c>
+      <c r="F5" s="53">
+        <v>5</v>
+      </c>
+      <c r="G5" s="53">
+        <v>5</v>
+      </c>
+      <c r="H5" s="53">
+        <v>5</v>
+      </c>
+      <c r="I5" s="53">
+        <v>5</v>
+      </c>
+      <c r="J5" s="54">
+        <f t="shared" si="0"/>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="55">
+        <v>3</v>
+      </c>
+      <c r="D6" s="53">
+        <v>5</v>
+      </c>
+      <c r="E6" s="52">
+        <v>4</v>
+      </c>
+      <c r="F6" s="52">
+        <v>4</v>
+      </c>
+      <c r="G6" s="52">
+        <v>4</v>
+      </c>
+      <c r="H6" s="52">
+        <v>4</v>
+      </c>
+      <c r="I6" s="52">
+        <v>4</v>
+      </c>
+      <c r="J6" s="54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="55">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="52">
+        <f t="shared" ref="D7:I7" si="1">AVERAGE(D2:D6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="52">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="52">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="52">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="52">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="54">
+        <f t="shared" si="0"/>
+        <v>4.0571428571428569</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -1232,7 +2455,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1248,70 +2471,70 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1325,28 +2548,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1357,8 +2580,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -1371,8 +2594,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -1383,8 +2606,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -1395,8 +2618,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1407,8 +2630,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1419,8 +2642,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1431,8 +2654,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -1453,20 +2676,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="166.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="159.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -1480,19 +2703,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="3" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +2726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1512,7 +2735,7 @@
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +2744,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +2753,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1545,253 +2768,253 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="16">
         <v>24</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="16">
         <v>22</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="16">
         <f>B3*C3*D3</f>
         <v>4224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="16">
         <v>16</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="16">
         <v>7</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="16">
         <v>18</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="16">
         <f t="shared" ref="E4:E13" si="0">B4*C4*D4</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="16">
         <v>36</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <v>8</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="16">
         <v>20</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="16">
         <v>20</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <v>6</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="16">
         <v>19</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>2280</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="16">
         <v>19</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <v>7</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="16">
         <v>21</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>2793</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <v>34</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <v>6</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="16">
         <v>22</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>4488</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="16">
         <v>30</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <v>7</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="16">
         <v>20</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="16">
         <v>25</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="16">
         <v>8</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="16">
         <v>19</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="16">
         <v>31</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="16">
         <v>8</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="16">
         <v>22</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>5456</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="16">
         <v>33</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <v>7</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="16">
         <v>21</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>4851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="16">
         <v>15</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="16">
         <v>6</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="16">
         <v>19</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>1710</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="22" t="s">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
         <v>41578</v>
       </c>

--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3148B661-A9A6-45AC-B7AF-97ECD28BBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB9D04-3F2D-45AF-A1BE-C2ACC29FA88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="Лист2" sheetId="14" r:id="rId14"/>
     <sheet name="Лист3" sheetId="15" r:id="rId15"/>
     <sheet name="Лист4" sheetId="16" r:id="rId16"/>
+    <sheet name="Лист5" sheetId="17" r:id="rId17"/>
+    <sheet name="Лист6" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
   <si>
     <t xml:space="preserve">Это первая строка Это вторая строка </t>
   </si>
@@ -376,6 +378,30 @@
   </si>
   <si>
     <t>Средний балл по группе</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
+  <si>
+    <t>y7</t>
   </si>
 </sst>
 </file>
@@ -606,31 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -678,6 +679,31 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,6 +728,3737 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F2B-49A4-95B8-4D90C5323BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F2B-49A4-95B8-4D90C5323BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F2B-49A4-95B8-4D90C5323BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4F2B-49A4-95B8-4D90C5323BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4F2B-49A4-95B8-4D90C5323BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4F2B-49A4-95B8-4D90C5323BF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1888638015"/>
+        <c:axId val="1888639679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1888638015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888639679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1888639679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888638015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D35E-45D7-8FC3-4FD7441F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D35E-45D7-8FC3-4FD7441F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D35E-45D7-8FC3-4FD7441F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D35E-45D7-8FC3-4FD7441F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D35E-45D7-8FC3-4FD7441F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$G$2:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D35E-45D7-8FC3-4FD7441F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D35E-45D7-8FC3-4FD7441F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1891091935"/>
+        <c:axId val="1891083199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1891091935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891083199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1891083199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891091935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E77AD05-ECFC-4E52-B515-3F1F62488CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87BE2B8-8D02-469B-A71B-BA4C5C151DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,11 +4868,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1195,10 +4952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1389,7 +5146,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5 C2 D3 E2 F7 C4:E4">
+  <conditionalFormatting sqref="C2 D5 D3 E2 F7 C4:E4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1401,7 +5158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 C5 D2 C7:D7 E5 F2 F4">
+  <conditionalFormatting sqref="C5 C3 D2 C7:D7 E5 F2 F4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1425,7 +5182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 F3">
+  <conditionalFormatting sqref="F3 E6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1456,232 +5213,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="27">
         <v>5</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="27">
         <v>4</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="27">
         <v>3</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="27">
         <v>4</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="27">
         <v>5</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="27">
         <v>4</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="27">
         <v>4</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="27">
         <v>5</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="27">
         <v>4</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="27">
         <v>5</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="27">
         <v>3</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="27">
         <v>2</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="27">
         <v>0</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="27">
         <v>4</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="27">
         <v>5</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="27">
         <v>5</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="27">
         <v>4</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="27">
         <v>3</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="27">
         <v>4</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="27">
         <v>4</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="27">
         <v>4</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="27">
         <v>4</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="27">
         <v>3</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="27">
         <v>4</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="27">
         <v>4</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="28" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1704,251 +5461,251 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="27">
         <v>5</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="27">
         <v>4</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="27">
         <v>3</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="28">
         <f>SUM(B3:D3)</f>
         <v>12</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="31">
         <f>AVERAGE(B3:D3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="27">
         <v>4</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="27">
         <v>5</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="27">
         <v>4</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="28">
         <f t="shared" ref="E4:E12" si="0">SUM(B4:D4)</f>
         <v>13</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="31">
         <f t="shared" ref="F4:F12" si="1">AVERAGE(B4:D4)</f>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="27">
         <v>4</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="27">
         <v>5</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="27">
         <v>4</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="31">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="27">
         <v>5</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="31">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="27">
         <v>3</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="27">
         <v>2</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="27">
         <v>0</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="31">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="27">
         <v>4</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="31">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="27">
         <v>5</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="27">
         <v>5</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="27">
         <v>4</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="27">
         <v>3</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="27">
         <v>4</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="31">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="27">
         <v>4</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="27">
         <v>4</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="27">
         <v>4</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="31">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="27">
         <v>3</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="27">
         <v>4</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="27">
         <v>4</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="31">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
@@ -1977,132 +5734,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="34">
         <v>31.5</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="34">
         <v>1520</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="34">
         <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="34">
         <v>34</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="34">
         <v>14701</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="34">
         <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="34">
         <v>68</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="34">
         <v>80</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="34">
         <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="34">
         <v>59.6</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="34">
         <v>288</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="34">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="34">
         <v>51.1</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="34">
         <v>61</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="34">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="34">
         <v>58</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="34">
         <v>281</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="34">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="34">
         <f>MAX(B2:B7)</f>
         <v>68</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34">
         <f>MIN(C2:C7)</f>
         <v>61</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35">
         <f>AVERAGE(D2:D7)</f>
         <v>461.66666666666669</v>
       </c>
@@ -2116,205 +5873,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C76300E-AC2A-4B38-AF38-07C609330090}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="50">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="43">
         <v>4</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="44">
         <v>5</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="44">
         <v>5</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="44">
         <v>5</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="44">
         <v>5</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="44">
         <v>5</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="44">
         <v>5</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="45">
         <f>AVERAGE(C2:I2)</f>
         <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="50">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="46">
         <v>3</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="46">
         <v>3</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="46">
         <v>3</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="46">
         <v>3</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="46">
         <v>3</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="46">
         <v>3</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="46">
         <v>3</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="47">
         <f t="shared" ref="J3:J7" si="0">AVERAGE(C3:I3)</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="50">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="46">
         <v>2</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="43">
         <v>4</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="43">
         <v>4</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="43">
         <v>4</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="43">
         <v>4</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="43">
         <v>4</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="43">
         <v>4</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="47">
         <f t="shared" si="0"/>
         <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="50">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="43">
         <v>4</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="43">
         <v>4</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="44">
         <v>5</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="44">
         <v>5</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="44">
         <v>5</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="44">
         <v>5</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="44">
         <v>5</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="45">
         <f t="shared" si="0"/>
         <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="50">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="46">
         <v>3</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="44">
         <v>5</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="43">
         <v>4</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="43">
         <v>4</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="43">
         <v>4</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="43">
         <v>4</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="43">
         <v>4</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2324,35 +6081,35 @@
         <v>107</v>
       </c>
       <c r="B7" s="57"/>
-      <c r="C7" s="55">
+      <c r="C7" s="46">
         <f>AVERAGE(C2:C6)</f>
         <v>3.2</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="43">
         <f t="shared" ref="D7:I7" si="1">AVERAGE(D2:D6)</f>
         <v>4.2</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="43">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="43">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="43">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="43">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="43">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="45">
         <f t="shared" si="0"/>
         <v>4.0571428571428569</v>
       </c>
@@ -2362,6 +6119,743 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33D67DE-C80E-4E4A-883A-F9BECD8D0048}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-12</v>
+      </c>
+      <c r="B2">
+        <f>-1/18*POWER(A2,2)+12</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>-1/8*POWER(A2+8,2)+6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B26" si="0">-1/18*POWER(A3,2)+12</f>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">-1/8*POWER(A3+8,2)+6</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-10</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C10">
+        <f>-1/8*POWER(A10,2)+6</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>2*POWER(A10+3,2)-9</f>
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <f>1.5*POWER(A10+3,2)-10</f>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C18" si="2">-1/8*POWER(A11,2)+6</f>
+        <v>4.875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F14" si="3">2*POWER(A11+3,2)-9</f>
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="4">1.5*POWER(A11+3,2)-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>-1/8*POWER(A18-8,2)+6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E26" si="5">-1/8*POWER(A19-8,2)+6</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF71A6-2FC6-4BF5-9D73-FBCBEF85C492}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-9</v>
+      </c>
+      <c r="B2">
+        <f>-1/16*POWER(A2+5,2)+2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>1/4*POWER(A2+5,2)-3</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>-POWER(A2+7,2)+5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-8</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="0">-1/16*POWER(A3+5,2)+2</f>
+        <v>1.4375</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">1/4*POWER(A3+5,2)-3</f>
+        <v>-0.75</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="2">-POWER(A3+7,2)+5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-6</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-2.75</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.4375</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>-0.5*POWER(A10,2)+1.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="3">-0.5*POWER(A11,2)+1.5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>-1/16*POWER(A12-5,2)+2</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>1/4*POWER(A12-5,2)-3</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C20" si="4">-1/16*POWER(A13-5,2)+2</f>
+        <v>1.4375</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E20" si="5">1/4*POWER(A13-5,2)-3</f>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>1.9375</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>1.9375</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>-2.75</v>
+      </c>
+      <c r="G17">
+        <f>-POWER(A17-7,2)+5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G20" si="6">-POWER(A18-7,2)+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>1.4375</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>-0.75</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2435,11 +6929,11 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2490,7 +6984,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2499,42 +6993,42 @@
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="26"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="26"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2563,11 +7057,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
@@ -2581,7 +7075,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -2595,7 +7089,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
+      <c r="B5" s="50"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -2607,7 +7101,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="50"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -2619,7 +7113,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
+      <c r="B7" s="50"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -2631,7 +7125,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
+      <c r="B8" s="50"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -2643,7 +7137,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
+      <c r="B9" s="50"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +7149,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
+      <c r="B10" s="50"/>
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -2784,13 +7278,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">

--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB9D04-3F2D-45AF-A1BE-C2ACC29FA88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D412D64-BAB4-4CCB-999F-88B28F8FD89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Лист4" sheetId="16" r:id="rId16"/>
     <sheet name="Лист5" sheetId="17" r:id="rId17"/>
     <sheet name="Лист6" sheetId="18" r:id="rId18"/>
+    <sheet name="Лист7" sheetId="19" r:id="rId19"/>
+    <sheet name="Лист8" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t xml:space="preserve">Это первая строка Это вторая строка </t>
   </si>
@@ -402,6 +404,12 @@
   </si>
   <si>
     <t>y7</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -413,12 +421,20 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,10 +597,11 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -598,8 +615,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -617,18 +634,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -679,10 +696,10 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -691,13 +708,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -707,9 +724,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{491D8F31-821C-4622-92BE-1BD0374EBA12}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3267,6 +3286,918 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист7!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист7!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.620000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист7!$B$3:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4074074074074066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6603773584905657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5801526717557248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3149171270718232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.912621359223301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5974025974025974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.34375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1352313167259784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9607843137254901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8126888217522659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6853932584269662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5748031496062991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4778325123152707</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3921113689095126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3157894736842104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2474012474012472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C59-405D-B1D7-509A422085B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1668338528"/>
+        <c:axId val="1668340192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1668338528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668340192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1668340192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668338528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0,2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист8!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-3.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3399999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.1399999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9399999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7399999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5399999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3399999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.9399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.73999999999999955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.53999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.33999999999999958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.13999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000442E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8600000000000012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2600000000000016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист8!$B$3:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-0.9999987317275395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.97974892356068422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.92043961758798054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.82443528867722204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.69556332646290175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.53896144939951074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.36087288013976654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16839744794907635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0791459082466787E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22875280780846002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41759450395835856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58978802503109862</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73846855872958816</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85770868136382439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94275466552834641</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99021599621263723</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99820053993520419</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96638997813451311</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89605249752552507</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78999223149736475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65243746816405146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48887208186052711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3058169083782889</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11056977982006914</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.9085416936459411E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28518905924502108</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.46992311372760259</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.63592281659400307</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.7765702835332936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.88625834387735247</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.96061408080095267</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.99667316571604669</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.9929980366980925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2B7-4BEF-99FD-3665150193C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1894149184"/>
+        <c:axId val="1894149600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1894149184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1894149600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1894149600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1894149184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3347,6 +4278,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3864,6 +4875,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4441,6 +6484,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87BE2B8-8D02-469B-A71B-BA4C5C151DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196AE44F-4F47-491B-96FE-692C9023DADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C0CD48-BEB2-43F0-AC9F-04CBFCB0FBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5146,7 +7271,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2 D5 D3 E2 F7 C4:E4">
+  <conditionalFormatting sqref="D5 C2 D3 E2 F7 C4:E4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5158,7 +7283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5 C3 D2 C7:D7 E5 F2 F4">
+  <conditionalFormatting sqref="C3 C5 D2 C7:D7 E5 F2 F4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5182,7 +7307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 E6">
+  <conditionalFormatting sqref="E6 F3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6538,7 +8663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF71A6-2FC6-4BF5-9D73-FBCBEF85C492}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
@@ -6851,6 +8976,182 @@
       <c r="G20">
         <f t="shared" si="6"/>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A6B096-D46B-4DD6-8365-A905F103D974}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B3" s="58">
+        <v>10.714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="58">
+        <v>1.62</v>
+      </c>
+      <c r="B4" s="58">
+        <v>7.4074074074074066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="58">
+        <v>2.12</v>
+      </c>
+      <c r="B5" s="58">
+        <v>5.6603773584905657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="58">
+        <v>2.62</v>
+      </c>
+      <c r="B6" s="58">
+        <v>4.5801526717557248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="58">
+        <v>3.12</v>
+      </c>
+      <c r="B7" s="58">
+        <v>3.8461538461538458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="58">
+        <v>3.62</v>
+      </c>
+      <c r="B8" s="58">
+        <v>3.3149171270718232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="58">
+        <v>4.12</v>
+      </c>
+      <c r="B9" s="58">
+        <v>2.912621359223301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
+        <v>4.62</v>
+      </c>
+      <c r="B10" s="58">
+        <v>2.5974025974025974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="58">
+        <v>5.12</v>
+      </c>
+      <c r="B11" s="58">
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="58">
+        <v>5.62</v>
+      </c>
+      <c r="B12" s="58">
+        <v>2.1352313167259784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="58">
+        <v>6.12</v>
+      </c>
+      <c r="B13" s="58">
+        <v>1.9607843137254901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
+        <v>6.62</v>
+      </c>
+      <c r="B14" s="58">
+        <v>1.8126888217522659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="58">
+        <v>7.12</v>
+      </c>
+      <c r="B15" s="58">
+        <v>1.6853932584269662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="58">
+        <v>7.62</v>
+      </c>
+      <c r="B16" s="58">
+        <v>1.5748031496062991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="58">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="B17" s="58">
+        <v>1.4778325123152707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="58">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="B18" s="58">
+        <v>1.3921113689095126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="58">
+        <v>9.120000000000001</v>
+      </c>
+      <c r="B19" s="58">
+        <v>1.3157894736842104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="58">
+        <v>9.620000000000001</v>
+      </c>
+      <c r="B20" s="58">
+        <v>1.2474012474012472</v>
       </c>
     </row>
   </sheetData>
@@ -6882,6 +9183,367 @@
     <row r="3" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EDB36-9720-4FB0-B65B-44FD1A828213}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-3.14</v>
+      </c>
+      <c r="B3">
+        <f>COS(A3)</f>
+        <v>-0.9999987317275395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+$B$1</f>
+        <v>-2.94</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B35" si="0">COS(A4)</f>
+        <v>-0.97974892356068422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A35" si="1">A4+$B$1</f>
+        <v>-2.7399999999999998</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-0.92043961758798054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>-2.5399999999999996</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-0.82443528867722204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>-2.3399999999999994</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-0.69556332646290175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>-2.1399999999999992</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-0.53896144939951074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>-1.9399999999999993</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-0.36087288013976654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>-1.7399999999999993</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-0.16839744794907635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>-1.5399999999999994</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3.0791459082466787E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>-1.3399999999999994</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.22875280780846002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>-1.1399999999999995</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.41759450395835856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>-0.9399999999999995</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.58978802503109862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>-0.73999999999999955</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.73846855872958816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>-0.53999999999999959</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.85770868136382439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>-0.33999999999999958</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.94275466552834641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>-0.13999999999999957</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.99021599621263723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000442E-2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.99820053993520419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.26000000000000045</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.96638997813451311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>A20+$B$1</f>
+        <v>0.46000000000000046</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.89605249752552507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0.66000000000000048</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.78999223149736475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.65243746816405146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>1.0600000000000005</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.48887208186052711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>1.2600000000000005</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.3058169083782889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>1.4600000000000004</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.11056977982006914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>1.6600000000000004</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>-8.9085416936459411E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>1.8600000000000003</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>-0.28518905924502108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>A28+$B$1</f>
+        <v>2.0600000000000005</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>-0.46992311372760259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>2.2600000000000007</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>-0.63592281659400307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>2.4600000000000009</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>-0.7765702835332936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>2.660000000000001</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>-0.88625834387735247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>2.8600000000000012</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>-0.96061408080095267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>3.0600000000000014</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>-0.99667316571604669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>3.2600000000000016</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>-0.9929980366980925</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D412D64-BAB4-4CCB-999F-88B28F8FD89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18194203-2F10-4DF7-9928-3AABD8A90669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="Лист6" sheetId="18" r:id="rId18"/>
     <sheet name="Лист7" sheetId="19" r:id="rId19"/>
     <sheet name="Лист8" sheetId="20" r:id="rId20"/>
+    <sheet name="Лист9" sheetId="21" r:id="rId21"/>
+    <sheet name="Лист10" sheetId="22" r:id="rId22"/>
+    <sheet name="Накладная" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
   <si>
     <t xml:space="preserve">Это первая строка Это вторая строка </t>
   </si>
@@ -410,6 +413,123 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО    Аленький цветочек                  </t>
+  </si>
+  <si>
+    <t>Прайс лист на</t>
+  </si>
+  <si>
+    <t>Курс $</t>
+  </si>
+  <si>
+    <t>№ поз</t>
+  </si>
+  <si>
+    <t>Наим.товара</t>
+  </si>
+  <si>
+    <t>Цена ($)</t>
+  </si>
+  <si>
+    <t>Цена (руб.)</t>
+  </si>
+  <si>
+    <t>Палочка волшебная</t>
+  </si>
+  <si>
+    <t>Зелье приворотное</t>
+  </si>
+  <si>
+    <t>Вода живая</t>
+  </si>
+  <si>
+    <t>Вода мертвая</t>
+  </si>
+  <si>
+    <t>Ковер-самолет</t>
+  </si>
+  <si>
+    <t>Скатерть-самобранка</t>
+  </si>
+  <si>
+    <t>Сапоги-скороходы</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>рублей</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>Цена в $</t>
+  </si>
+  <si>
+    <t>Цена в руб.</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Сумма в руб.</t>
+  </si>
+  <si>
+    <t>Кофеварка</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Плеер</t>
+  </si>
+  <si>
+    <t>Тостер</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
+    <t>СВЧ печь</t>
+  </si>
+  <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>Фен</t>
+  </si>
+  <si>
+    <t>Магнитофон</t>
+  </si>
+  <si>
+    <t>Чайник</t>
   </si>
 </sst>
 </file>
@@ -421,7 +541,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +594,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -601,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -696,6 +823,11 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,7 +856,21 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6993,11 +7139,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -7077,10 +7223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7271,7 +7417,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5 C2 D3 E2 F7 C4:E4">
+  <conditionalFormatting sqref="C2 D5 D3 E2 F7 C4:E4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7283,7 +7429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 C5 D2 C7:D7 E5 F2 F4">
+  <conditionalFormatting sqref="C5 C3 D2 C7:D7 E5 F2 F4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7307,7 +7453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 F3">
+  <conditionalFormatting sqref="F3 E6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7338,14 +7484,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
@@ -7586,14 +7732,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -8202,10 +8348,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="46">
         <f>AVERAGE(C2:C6)</f>
         <v>3.2</v>
@@ -8995,162 +9141,162 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="50" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="58">
+      <c r="A3" s="50">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="50">
         <v>10.714285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+      <c r="A4" s="50">
         <v>1.62</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="50">
         <v>7.4074074074074066</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
+      <c r="A5" s="50">
         <v>2.12</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="50">
         <v>5.6603773584905657</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+      <c r="A6" s="50">
         <v>2.62</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="50">
         <v>4.5801526717557248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
+      <c r="A7" s="50">
         <v>3.12</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="50">
         <v>3.8461538461538458</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="58">
+      <c r="A8" s="50">
         <v>3.62</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="50">
         <v>3.3149171270718232</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+      <c r="A9" s="50">
         <v>4.12</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="50">
         <v>2.912621359223301</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+      <c r="A10" s="50">
         <v>4.62</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="50">
         <v>2.5974025974025974</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
+      <c r="A11" s="50">
         <v>5.12</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="50">
         <v>2.34375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
+      <c r="A12" s="50">
         <v>5.62</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="50">
         <v>2.1352313167259784</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="58">
+      <c r="A13" s="50">
         <v>6.12</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="50">
         <v>1.9607843137254901</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+      <c r="A14" s="50">
         <v>6.62</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="50">
         <v>1.8126888217522659</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="58">
+      <c r="A15" s="50">
         <v>7.12</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="50">
         <v>1.6853932584269662</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+      <c r="A16" s="50">
         <v>7.62</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="50">
         <v>1.5748031496062991</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+      <c r="A17" s="50">
         <v>8.120000000000001</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="50">
         <v>1.4778325123152707</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+      <c r="A18" s="50">
         <v>8.620000000000001</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="50">
         <v>1.3921113689095126</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="50">
         <v>9.120000000000001</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="50">
         <v>1.3157894736842104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="A20" s="50">
         <v>9.620000000000001</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="50">
         <v>1.2474012474012472</v>
       </c>
     </row>
@@ -9190,7 +9336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EDB36-9720-4FB0-B65B-44FD1A828213}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B35"/>
     </sheetView>
   </sheetViews>
@@ -9544,6 +9690,550 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A8737E-4E1B-41D3-AFB3-22F5B8E0FC6E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63">
+        <f ca="1">TODAY()</f>
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="64">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="64">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <f>C5*$C$3</f>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="64">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D11" si="0">C6*$C$3</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="64">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="48">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="64">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="64">
+        <v>700</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
+        <v>7</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="64">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49750709-2F05-4921-9438-ACE2E113F02A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="48">
+        <v>67.5</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3">
+        <v>1350</v>
+      </c>
+      <c r="C3">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>1180</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>780</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7">
+        <v>560</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6C41B8-D756-4951-9F4E-3348C81F4CD4}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="48">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2*$C$12</f>
+        <v>2359</v>
+      </c>
+      <c r="E2" s="48">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="48">
+        <v>900</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D11" si="0">C3*$C$12</f>
+        <v>30330.000000000004</v>
+      </c>
+      <c r="E3" s="48">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="1">D3*E3</f>
+        <v>121320.00000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="48">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>2022.0000000000002</v>
+      </c>
+      <c r="E4" s="48">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>6066.0000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="48">
+        <v>150</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>5055</v>
+      </c>
+      <c r="E5" s="48">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="48">
+        <v>600</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>20220</v>
+      </c>
+      <c r="E6" s="48">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>40440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="48">
+        <v>300</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>10110</v>
+      </c>
+      <c r="E7" s="48">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>30330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="48">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>2359</v>
+      </c>
+      <c r="E8" s="48">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="48">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>2190.5</v>
+      </c>
+      <c r="E9" s="48">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>19714.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="48">
+        <v>400</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>13480.000000000002</v>
+      </c>
+      <c r="E10" s="48">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>67400.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="48">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>1348</v>
+      </c>
+      <c r="E11" s="48">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="48">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9591,11 +10281,11 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -9646,7 +10336,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -9655,42 +10345,42 @@
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
@@ -9719,11 +10409,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
@@ -9737,7 +10427,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -9751,7 +10441,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="50"/>
+      <c r="B5" s="53"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -9763,7 +10453,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="50"/>
+      <c r="B6" s="53"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -9775,7 +10465,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="50"/>
+      <c r="B7" s="53"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -9787,7 +10477,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="50"/>
+      <c r="B8" s="53"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -9799,7 +10489,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
+      <c r="B9" s="53"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9811,7 +10501,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="50"/>
+      <c r="B10" s="53"/>
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -9940,13 +10630,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
